--- a/планы_2025_2026.xlsx
+++ b/планы_2025_2026.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -475,10 +475,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -503,20 +504,25 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -669,20 +675,25 @@
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="E19" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
+      <c r="F19" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -835,20 +846,25 @@
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -1001,20 +1017,25 @@
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
+      <c r="F49" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -1167,20 +1188,25 @@
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D64" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
+      <c r="F64" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -1333,20 +1359,25 @@
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C79" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C79" s="4" t="inlineStr">
+      <c r="E79" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D79" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
+      <c r="F79" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -1499,20 +1530,25 @@
       </c>
       <c r="B94" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C94" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C94" s="4" t="inlineStr">
+      <c r="E94" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D94" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E94" s="4" t="inlineStr">
+      <c r="F94" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -1665,20 +1701,25 @@
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C109" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D109" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C109" s="4" t="inlineStr">
+      <c r="E109" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D109" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E109" s="4" t="inlineStr">
+      <c r="F109" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -1831,20 +1872,25 @@
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C124" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C124" s="4" t="inlineStr">
+      <c r="E124" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D124" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E124" s="4" t="inlineStr">
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -1997,20 +2043,25 @@
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C139" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C139" s="4" t="inlineStr">
+      <c r="E139" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D139" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E139" s="4" t="inlineStr">
+      <c r="F139" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -2163,20 +2214,25 @@
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C154" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D154" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C154" s="4" t="inlineStr">
+      <c r="E154" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D154" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E154" s="4" t="inlineStr">
+      <c r="F154" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -2329,20 +2385,25 @@
       </c>
       <c r="B169" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C169" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D169" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C169" s="4" t="inlineStr">
+      <c r="E169" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D169" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E169" s="4" t="inlineStr">
+      <c r="F169" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -2495,20 +2556,25 @@
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C184" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D184" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C184" s="4" t="inlineStr">
+      <c r="E184" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D184" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E184" s="4" t="inlineStr">
+      <c r="F184" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -2661,20 +2727,25 @@
       </c>
       <c r="B199" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C199" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D199" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C199" s="4" t="inlineStr">
+      <c r="E199" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D199" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E199" s="4" t="inlineStr">
+      <c r="F199" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -2827,20 +2898,25 @@
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C214" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D214" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C214" s="4" t="inlineStr">
+      <c r="E214" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D214" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E214" s="4" t="inlineStr">
+      <c r="F214" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -2993,20 +3069,25 @@
       </c>
       <c r="B229" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C229" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D229" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C229" s="4" t="inlineStr">
+      <c r="E229" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D229" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E229" s="4" t="inlineStr">
+      <c r="F229" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -3159,20 +3240,25 @@
       </c>
       <c r="B244" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C244" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D244" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C244" s="4" t="inlineStr">
+      <c r="E244" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D244" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E244" s="4" t="inlineStr">
+      <c r="F244" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -3325,20 +3411,25 @@
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C259" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D259" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C259" s="4" t="inlineStr">
+      <c r="E259" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D259" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E259" s="4" t="inlineStr">
+      <c r="F259" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -3491,20 +3582,25 @@
       </c>
       <c r="B274" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C274" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D274" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C274" s="4" t="inlineStr">
+      <c r="E274" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D274" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E274" s="4" t="inlineStr">
+      <c r="F274" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -3657,20 +3753,25 @@
       </c>
       <c r="B289" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C289" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D289" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C289" s="4" t="inlineStr">
+      <c r="E289" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D289" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E289" s="4" t="inlineStr">
+      <c r="F289" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -3823,20 +3924,25 @@
       </c>
       <c r="B304" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C304" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D304" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C304" s="4" t="inlineStr">
+      <c r="E304" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D304" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E304" s="4" t="inlineStr">
+      <c r="F304" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -3989,20 +4095,25 @@
       </c>
       <c r="B319" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C319" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D319" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C319" s="4" t="inlineStr">
+      <c r="E319" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D319" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E319" s="4" t="inlineStr">
+      <c r="F319" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -4155,20 +4266,25 @@
       </c>
       <c r="B334" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C334" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D334" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C334" s="4" t="inlineStr">
+      <c r="E334" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D334" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E334" s="4" t="inlineStr">
+      <c r="F334" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
@@ -4321,20 +4437,25 @@
       </c>
       <c r="B349" s="4" t="inlineStr">
         <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C349" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D349" s="4" t="inlineStr">
+        <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="C349" s="4" t="inlineStr">
+      <c r="E349" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="D349" s="4" t="inlineStr">
-        <is>
-          <t>Ленинградская</t>
-        </is>
-      </c>
-      <c r="E349" s="4" t="inlineStr">
+      <c r="F349" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>

--- a/планы_2025_2026.xlsx
+++ b/планы_2025_2026.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:F337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -575,7 +575,7 @@
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr"/>
@@ -586,7 +586,7 @@
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr"/>
@@ -597,7 +597,7 @@
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr"/>
@@ -608,7 +608,7 @@
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B12" s="6" t="inlineStr"/>
@@ -619,7 +619,7 @@
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr"/>
@@ -630,7 +630,7 @@
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr"/>
@@ -641,7 +641,7 @@
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr"/>
@@ -649,60 +649,60 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
     </row>
-    <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Наценка кухня</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="inlineStr"/>
-      <c r="C16" s="6" t="inlineStr"/>
-      <c r="D16" s="6" t="inlineStr"/>
-      <c r="E16" s="6" t="inlineStr"/>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Февраль 2025</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Февраль 2025</t>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Выручка</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr"/>
+      <c r="C19" s="6" t="inlineStr"/>
+      <c r="D19" s="6" t="inlineStr"/>
+      <c r="E19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr"/>
@@ -713,7 +713,7 @@
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr"/>
@@ -724,7 +724,7 @@
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr"/>
@@ -735,7 +735,7 @@
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr"/>
@@ -746,7 +746,7 @@
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr"/>
@@ -757,7 +757,7 @@
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr"/>
@@ -768,7 +768,7 @@
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr"/>
@@ -779,7 +779,7 @@
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr"/>
@@ -790,7 +790,7 @@
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr"/>
@@ -801,7 +801,7 @@
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr"/>
@@ -809,71 +809,71 @@
       <c r="D29" s="6" t="inlineStr"/>
       <c r="E29" s="6" t="inlineStr"/>
     </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>Наценка фасовка</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="inlineStr"/>
-      <c r="C30" s="6" t="inlineStr"/>
-      <c r="D30" s="6" t="inlineStr"/>
-      <c r="E30" s="6" t="inlineStr"/>
-    </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Наценка кухня</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="inlineStr"/>
-      <c r="C31" s="6" t="inlineStr"/>
-      <c r="D31" s="6" t="inlineStr"/>
-      <c r="E31" s="6" t="inlineStr"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Март 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Март 2025</t>
-        </is>
-      </c>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Выручка</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr"/>
+      <c r="C33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F34" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Прибыль</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr"/>
+      <c r="C34" s="6" t="inlineStr"/>
+      <c r="D34" s="6" t="inlineStr"/>
+      <c r="E34" s="6" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr"/>
@@ -884,7 +884,7 @@
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr"/>
@@ -895,7 +895,7 @@
     <row r="37">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr"/>
@@ -906,7 +906,7 @@
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr"/>
@@ -917,7 +917,7 @@
     <row r="39">
       <c r="A39" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr"/>
@@ -928,7 +928,7 @@
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr"/>
@@ -939,7 +939,7 @@
     <row r="41">
       <c r="A41" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr"/>
@@ -950,7 +950,7 @@
     <row r="42">
       <c r="A42" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr"/>
@@ -961,7 +961,7 @@
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr"/>
@@ -969,82 +969,82 @@
       <c r="D43" s="6" t="inlineStr"/>
       <c r="E43" s="6" t="inlineStr"/>
     </row>
-    <row r="44">
-      <c r="A44" s="5" t="inlineStr">
-        <is>
-          <t>Наценка розлив</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="inlineStr"/>
-      <c r="C44" s="6" t="inlineStr"/>
-      <c r="D44" s="6" t="inlineStr"/>
-      <c r="E44" s="6" t="inlineStr"/>
-    </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
-        <is>
-          <t>Наценка фасовка</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="inlineStr"/>
-      <c r="C45" s="6" t="inlineStr"/>
-      <c r="D45" s="6" t="inlineStr"/>
-      <c r="E45" s="6" t="inlineStr"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Апрель 2025</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="inlineStr">
-        <is>
-          <t>Наценка кухня</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="inlineStr"/>
-      <c r="C46" s="6" t="inlineStr"/>
-      <c r="D46" s="6" t="inlineStr"/>
-      <c r="E46" s="6" t="inlineStr"/>
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>Выручка</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr"/>
+      <c r="C47" s="6" t="inlineStr"/>
+      <c r="D47" s="6" t="inlineStr"/>
+      <c r="E47" s="6" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Апрель 2025</t>
-        </is>
-      </c>
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>Прибыль</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr"/>
+      <c r="C48" s="6" t="inlineStr"/>
+      <c r="D48" s="6" t="inlineStr"/>
+      <c r="E48" s="6" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F49" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Гости</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr"/>
+      <c r="C49" s="6" t="inlineStr"/>
+      <c r="D49" s="6" t="inlineStr"/>
+      <c r="E49" s="6" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr"/>
@@ -1066,7 +1066,7 @@
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr"/>
@@ -1077,7 +1077,7 @@
     <row r="53">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B53" s="6" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
     <row r="54">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B54" s="6" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
     <row r="55">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B55" s="6" t="inlineStr"/>
@@ -1110,7 +1110,7 @@
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
     <row r="57">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B57" s="6" t="inlineStr"/>
@@ -1129,43 +1129,49 @@
       <c r="D57" s="6" t="inlineStr"/>
       <c r="E57" s="6" t="inlineStr"/>
     </row>
-    <row r="58">
-      <c r="A58" s="5" t="inlineStr">
-        <is>
-          <t>Наценка</t>
-        </is>
-      </c>
-      <c r="B58" s="6" t="inlineStr"/>
-      <c r="C58" s="6" t="inlineStr"/>
-      <c r="D58" s="6" t="inlineStr"/>
-      <c r="E58" s="6" t="inlineStr"/>
-    </row>
     <row r="59">
-      <c r="A59" s="5" t="inlineStr">
-        <is>
-          <t>Наценка розлив</t>
-        </is>
-      </c>
-      <c r="B59" s="6" t="inlineStr"/>
-      <c r="C59" s="6" t="inlineStr"/>
-      <c r="D59" s="6" t="inlineStr"/>
-      <c r="E59" s="6" t="inlineStr"/>
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>Май 2025</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
-        <is>
-          <t>Наценка фасовка</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="inlineStr"/>
-      <c r="C60" s="6" t="inlineStr"/>
-      <c r="D60" s="6" t="inlineStr"/>
-      <c r="E60" s="6" t="inlineStr"/>
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr"/>
@@ -1173,49 +1179,43 @@
       <c r="D61" s="6" t="inlineStr"/>
       <c r="E61" s="6" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>Прибыль</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="inlineStr"/>
+      <c r="C62" s="6" t="inlineStr"/>
+      <c r="D62" s="6" t="inlineStr"/>
+      <c r="E62" s="6" t="inlineStr"/>
+    </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Май 2025</t>
-        </is>
-      </c>
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>Гости</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr"/>
+      <c r="C63" s="6" t="inlineStr"/>
+      <c r="D63" s="6" t="inlineStr"/>
+      <c r="E63" s="6" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>Средний чек</t>
+        </is>
+      </c>
+      <c r="B64" s="6" t="inlineStr"/>
+      <c r="C64" s="6" t="inlineStr"/>
+      <c r="D64" s="6" t="inlineStr"/>
+      <c r="E64" s="6" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
     <row r="66">
       <c r="A66" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr"/>
@@ -1237,7 +1237,7 @@
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr"/>
@@ -1248,7 +1248,7 @@
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr"/>
@@ -1259,7 +1259,7 @@
     <row r="69">
       <c r="A69" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr"/>
@@ -1270,7 +1270,7 @@
     <row r="70">
       <c r="A70" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr"/>
@@ -1281,7 +1281,7 @@
     <row r="71">
       <c r="A71" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr"/>
@@ -1289,43 +1289,49 @@
       <c r="D71" s="6" t="inlineStr"/>
       <c r="E71" s="6" t="inlineStr"/>
     </row>
-    <row r="72">
-      <c r="A72" s="5" t="inlineStr">
-        <is>
-          <t>Доля кухня</t>
-        </is>
-      </c>
-      <c r="B72" s="6" t="inlineStr"/>
-      <c r="C72" s="6" t="inlineStr"/>
-      <c r="D72" s="6" t="inlineStr"/>
-      <c r="E72" s="6" t="inlineStr"/>
-    </row>
     <row r="73">
-      <c r="A73" s="5" t="inlineStr">
-        <is>
-          <t>Наценка</t>
-        </is>
-      </c>
-      <c r="B73" s="6" t="inlineStr"/>
-      <c r="C73" s="6" t="inlineStr"/>
-      <c r="D73" s="6" t="inlineStr"/>
-      <c r="E73" s="6" t="inlineStr"/>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Июнь 2025</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="inlineStr">
-        <is>
-          <t>Наценка розлив</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="inlineStr"/>
-      <c r="C74" s="6" t="inlineStr"/>
-      <c r="D74" s="6" t="inlineStr"/>
-      <c r="E74" s="6" t="inlineStr"/>
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C74" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr"/>
@@ -1336,7 +1342,7 @@
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr"/>
@@ -1344,49 +1350,43 @@
       <c r="D76" s="6" t="inlineStr"/>
       <c r="E76" s="6" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Гости</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr"/>
+      <c r="C77" s="6" t="inlineStr"/>
+      <c r="D77" s="6" t="inlineStr"/>
+      <c r="E77" s="6" t="inlineStr"/>
+    </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Июнь 2025</t>
-        </is>
-      </c>
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>Средний чек</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr"/>
+      <c r="C78" s="6" t="inlineStr"/>
+      <c r="D78" s="6" t="inlineStr"/>
+      <c r="E78" s="6" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B79" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C79" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D79" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E79" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>Доля розлив</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr"/>
+      <c r="C79" s="6" t="inlineStr"/>
+      <c r="D79" s="6" t="inlineStr"/>
+      <c r="E79" s="6" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr"/>
@@ -1397,7 +1397,7 @@
     <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr"/>
@@ -1419,7 +1419,7 @@
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr"/>
@@ -1430,7 +1430,7 @@
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
     <row r="85">
       <c r="A85" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr"/>
@@ -1449,43 +1449,49 @@
       <c r="D85" s="6" t="inlineStr"/>
       <c r="E85" s="6" t="inlineStr"/>
     </row>
-    <row r="86">
-      <c r="A86" s="5" t="inlineStr">
-        <is>
-          <t>Доля фасовка</t>
-        </is>
-      </c>
-      <c r="B86" s="6" t="inlineStr"/>
-      <c r="C86" s="6" t="inlineStr"/>
-      <c r="D86" s="6" t="inlineStr"/>
-      <c r="E86" s="6" t="inlineStr"/>
-    </row>
     <row r="87">
-      <c r="A87" s="5" t="inlineStr">
-        <is>
-          <t>Доля кухня</t>
-        </is>
-      </c>
-      <c r="B87" s="6" t="inlineStr"/>
-      <c r="C87" s="6" t="inlineStr"/>
-      <c r="D87" s="6" t="inlineStr"/>
-      <c r="E87" s="6" t="inlineStr"/>
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Июль 2025</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="inlineStr">
-        <is>
-          <t>Наценка</t>
-        </is>
-      </c>
-      <c r="B88" s="6" t="inlineStr"/>
-      <c r="C88" s="6" t="inlineStr"/>
-      <c r="D88" s="6" t="inlineStr"/>
-      <c r="E88" s="6" t="inlineStr"/>
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B88" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C88" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E88" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr"/>
@@ -1496,7 +1502,7 @@
     <row r="90">
       <c r="A90" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr"/>
@@ -1507,7 +1513,7 @@
     <row r="91">
       <c r="A91" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr"/>
@@ -1515,49 +1521,43 @@
       <c r="D91" s="6" t="inlineStr"/>
       <c r="E91" s="6" t="inlineStr"/>
     </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>Средний чек</t>
+        </is>
+      </c>
+      <c r="B92" s="6" t="inlineStr"/>
+      <c r="C92" s="6" t="inlineStr"/>
+      <c r="D92" s="6" t="inlineStr"/>
+      <c r="E92" s="6" t="inlineStr"/>
+    </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>Июль 2025</t>
-        </is>
-      </c>
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Доля розлив</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr"/>
+      <c r="C93" s="6" t="inlineStr"/>
+      <c r="D93" s="6" t="inlineStr"/>
+      <c r="E93" s="6" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B94" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C94" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D94" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E94" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>Доля фасовка</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="inlineStr"/>
+      <c r="C94" s="6" t="inlineStr"/>
+      <c r="D94" s="6" t="inlineStr"/>
+      <c r="E94" s="6" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
     <row r="96">
       <c r="A96" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr"/>
@@ -1579,7 +1579,7 @@
     <row r="97">
       <c r="A97" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr"/>
@@ -1590,7 +1590,7 @@
     <row r="98">
       <c r="A98" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
     <row r="99">
       <c r="A99" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr"/>
@@ -1609,43 +1609,49 @@
       <c r="D99" s="6" t="inlineStr"/>
       <c r="E99" s="6" t="inlineStr"/>
     </row>
-    <row r="100">
-      <c r="A100" s="5" t="inlineStr">
-        <is>
-          <t>Доля розлив</t>
-        </is>
-      </c>
-      <c r="B100" s="6" t="inlineStr"/>
-      <c r="C100" s="6" t="inlineStr"/>
-      <c r="D100" s="6" t="inlineStr"/>
-      <c r="E100" s="6" t="inlineStr"/>
-    </row>
     <row r="101">
-      <c r="A101" s="5" t="inlineStr">
-        <is>
-          <t>Доля фасовка</t>
-        </is>
-      </c>
-      <c r="B101" s="6" t="inlineStr"/>
-      <c r="C101" s="6" t="inlineStr"/>
-      <c r="D101" s="6" t="inlineStr"/>
-      <c r="E101" s="6" t="inlineStr"/>
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Август 2025</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="inlineStr">
-        <is>
-          <t>Доля кухня</t>
-        </is>
-      </c>
-      <c r="B102" s="6" t="inlineStr"/>
-      <c r="C102" s="6" t="inlineStr"/>
-      <c r="D102" s="6" t="inlineStr"/>
-      <c r="E102" s="6" t="inlineStr"/>
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B102" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C102" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D102" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E102" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B103" s="6" t="inlineStr"/>
@@ -1656,7 +1662,7 @@
     <row r="104">
       <c r="A104" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B104" s="6" t="inlineStr"/>
@@ -1667,7 +1673,7 @@
     <row r="105">
       <c r="A105" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B105" s="6" t="inlineStr"/>
@@ -1678,7 +1684,7 @@
     <row r="106">
       <c r="A106" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B106" s="6" t="inlineStr"/>
@@ -1686,49 +1692,43 @@
       <c r="D106" s="6" t="inlineStr"/>
       <c r="E106" s="6" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>Доля розлив</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr"/>
+      <c r="C107" s="6" t="inlineStr"/>
+      <c r="D107" s="6" t="inlineStr"/>
+      <c r="E107" s="6" t="inlineStr"/>
+    </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>Август 2025</t>
-        </is>
-      </c>
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>Доля фасовка</t>
+        </is>
+      </c>
+      <c r="B108" s="6" t="inlineStr"/>
+      <c r="C108" s="6" t="inlineStr"/>
+      <c r="D108" s="6" t="inlineStr"/>
+      <c r="E108" s="6" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B109" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C109" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D109" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E109" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>Доля кухня</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr"/>
+      <c r="C109" s="6" t="inlineStr"/>
+      <c r="D109" s="6" t="inlineStr"/>
+      <c r="E109" s="6" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B110" s="6" t="inlineStr"/>
@@ -1739,7 +1739,7 @@
     <row r="111">
       <c r="A111" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B111" s="6" t="inlineStr"/>
@@ -1750,7 +1750,7 @@
     <row r="112">
       <c r="A112" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B112" s="6" t="inlineStr"/>
@@ -1761,7 +1761,7 @@
     <row r="113">
       <c r="A113" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B113" s="6" t="inlineStr"/>
@@ -1769,43 +1769,49 @@
       <c r="D113" s="6" t="inlineStr"/>
       <c r="E113" s="6" t="inlineStr"/>
     </row>
-    <row r="114">
-      <c r="A114" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек на гостя</t>
-        </is>
-      </c>
-      <c r="B114" s="6" t="inlineStr"/>
-      <c r="C114" s="6" t="inlineStr"/>
-      <c r="D114" s="6" t="inlineStr"/>
-      <c r="E114" s="6" t="inlineStr"/>
-    </row>
     <row r="115">
-      <c r="A115" s="5" t="inlineStr">
-        <is>
-          <t>Доля розлив</t>
-        </is>
-      </c>
-      <c r="B115" s="6" t="inlineStr"/>
-      <c r="C115" s="6" t="inlineStr"/>
-      <c r="D115" s="6" t="inlineStr"/>
-      <c r="E115" s="6" t="inlineStr"/>
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>Сентябрь 2025</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="5" t="inlineStr">
-        <is>
-          <t>Доля фасовка</t>
-        </is>
-      </c>
-      <c r="B116" s="6" t="inlineStr"/>
-      <c r="C116" s="6" t="inlineStr"/>
-      <c r="D116" s="6" t="inlineStr"/>
-      <c r="E116" s="6" t="inlineStr"/>
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B117" s="6" t="inlineStr"/>
@@ -1816,7 +1822,7 @@
     <row r="118">
       <c r="A118" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B118" s="6" t="inlineStr"/>
@@ -1827,7 +1833,7 @@
     <row r="119">
       <c r="A119" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B119" s="6" t="inlineStr"/>
@@ -1838,7 +1844,7 @@
     <row r="120">
       <c r="A120" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B120" s="6" t="inlineStr"/>
@@ -1849,7 +1855,7 @@
     <row r="121">
       <c r="A121" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B121" s="6" t="inlineStr"/>
@@ -1857,49 +1863,43 @@
       <c r="D121" s="6" t="inlineStr"/>
       <c r="E121" s="6" t="inlineStr"/>
     </row>
+    <row r="122">
+      <c r="A122" s="5" t="inlineStr">
+        <is>
+          <t>Доля фасовка</t>
+        </is>
+      </c>
+      <c r="B122" s="6" t="inlineStr"/>
+      <c r="C122" s="6" t="inlineStr"/>
+      <c r="D122" s="6" t="inlineStr"/>
+      <c r="E122" s="6" t="inlineStr"/>
+    </row>
     <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>Сентябрь 2025</t>
-        </is>
-      </c>
+      <c r="A123" s="5" t="inlineStr">
+        <is>
+          <t>Доля кухня</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr"/>
+      <c r="C123" s="6" t="inlineStr"/>
+      <c r="D123" s="6" t="inlineStr"/>
+      <c r="E123" s="6" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B124" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C124" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D124" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E124" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A124" s="5" t="inlineStr">
+        <is>
+          <t>Наценка</t>
+        </is>
+      </c>
+      <c r="B124" s="6" t="inlineStr"/>
+      <c r="C124" s="6" t="inlineStr"/>
+      <c r="D124" s="6" t="inlineStr"/>
+      <c r="E124" s="6" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B125" s="6" t="inlineStr"/>
@@ -1910,7 +1910,7 @@
     <row r="126">
       <c r="A126" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B126" s="6" t="inlineStr"/>
@@ -1921,7 +1921,7 @@
     <row r="127">
       <c r="A127" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B127" s="6" t="inlineStr"/>
@@ -1929,43 +1929,49 @@
       <c r="D127" s="6" t="inlineStr"/>
       <c r="E127" s="6" t="inlineStr"/>
     </row>
-    <row r="128">
-      <c r="A128" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек</t>
-        </is>
-      </c>
-      <c r="B128" s="6" t="inlineStr"/>
-      <c r="C128" s="6" t="inlineStr"/>
-      <c r="D128" s="6" t="inlineStr"/>
-      <c r="E128" s="6" t="inlineStr"/>
-    </row>
     <row r="129">
-      <c r="A129" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек на гостя</t>
-        </is>
-      </c>
-      <c r="B129" s="6" t="inlineStr"/>
-      <c r="C129" s="6" t="inlineStr"/>
-      <c r="D129" s="6" t="inlineStr"/>
-      <c r="E129" s="6" t="inlineStr"/>
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>Октябрь 2025</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="5" t="inlineStr">
-        <is>
-          <t>Доля розлив</t>
-        </is>
-      </c>
-      <c r="B130" s="6" t="inlineStr"/>
-      <c r="C130" s="6" t="inlineStr"/>
-      <c r="D130" s="6" t="inlineStr"/>
-      <c r="E130" s="6" t="inlineStr"/>
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C130" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E130" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B131" s="6" t="inlineStr"/>
@@ -1976,7 +1982,7 @@
     <row r="132">
       <c r="A132" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B132" s="6" t="inlineStr"/>
@@ -1987,7 +1993,7 @@
     <row r="133">
       <c r="A133" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B133" s="6" t="inlineStr"/>
@@ -1998,7 +2004,7 @@
     <row r="134">
       <c r="A134" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B134" s="6" t="inlineStr"/>
@@ -2009,7 +2015,7 @@
     <row r="135">
       <c r="A135" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B135" s="6" t="inlineStr"/>
@@ -2020,7 +2026,7 @@
     <row r="136">
       <c r="A136" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B136" s="6" t="inlineStr"/>
@@ -2028,49 +2034,43 @@
       <c r="D136" s="6" t="inlineStr"/>
       <c r="E136" s="6" t="inlineStr"/>
     </row>
+    <row r="137">
+      <c r="A137" s="5" t="inlineStr">
+        <is>
+          <t>Доля кухня</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr"/>
+      <c r="C137" s="6" t="inlineStr"/>
+      <c r="D137" s="6" t="inlineStr"/>
+      <c r="E137" s="6" t="inlineStr"/>
+    </row>
     <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>Октябрь 2025</t>
-        </is>
-      </c>
+      <c r="A138" s="5" t="inlineStr">
+        <is>
+          <t>Наценка</t>
+        </is>
+      </c>
+      <c r="B138" s="6" t="inlineStr"/>
+      <c r="C138" s="6" t="inlineStr"/>
+      <c r="D138" s="6" t="inlineStr"/>
+      <c r="E138" s="6" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B139" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C139" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D139" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E139" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F139" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A139" s="5" t="inlineStr">
+        <is>
+          <t>Наценка розлив</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr"/>
+      <c r="C139" s="6" t="inlineStr"/>
+      <c r="D139" s="6" t="inlineStr"/>
+      <c r="E139" s="6" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B140" s="6" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
     <row r="141">
       <c r="A141" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B141" s="6" t="inlineStr"/>
@@ -2089,43 +2089,49 @@
       <c r="D141" s="6" t="inlineStr"/>
       <c r="E141" s="6" t="inlineStr"/>
     </row>
-    <row r="142">
-      <c r="A142" s="5" t="inlineStr">
-        <is>
-          <t>Гости</t>
-        </is>
-      </c>
-      <c r="B142" s="6" t="inlineStr"/>
-      <c r="C142" s="6" t="inlineStr"/>
-      <c r="D142" s="6" t="inlineStr"/>
-      <c r="E142" s="6" t="inlineStr"/>
-    </row>
     <row r="143">
-      <c r="A143" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек</t>
-        </is>
-      </c>
-      <c r="B143" s="6" t="inlineStr"/>
-      <c r="C143" s="6" t="inlineStr"/>
-      <c r="D143" s="6" t="inlineStr"/>
-      <c r="E143" s="6" t="inlineStr"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Ноябрь 2025</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек на гостя</t>
-        </is>
-      </c>
-      <c r="B144" s="6" t="inlineStr"/>
-      <c r="C144" s="6" t="inlineStr"/>
-      <c r="D144" s="6" t="inlineStr"/>
-      <c r="E144" s="6" t="inlineStr"/>
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B144" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C144" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E144" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B145" s="6" t="inlineStr"/>
@@ -2136,7 +2142,7 @@
     <row r="146">
       <c r="A146" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B146" s="6" t="inlineStr"/>
@@ -2147,7 +2153,7 @@
     <row r="147">
       <c r="A147" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B147" s="6" t="inlineStr"/>
@@ -2158,7 +2164,7 @@
     <row r="148">
       <c r="A148" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B148" s="6" t="inlineStr"/>
@@ -2169,7 +2175,7 @@
     <row r="149">
       <c r="A149" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B149" s="6" t="inlineStr"/>
@@ -2180,7 +2186,7 @@
     <row r="150">
       <c r="A150" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B150" s="6" t="inlineStr"/>
@@ -2191,7 +2197,7 @@
     <row r="151">
       <c r="A151" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B151" s="6" t="inlineStr"/>
@@ -2199,49 +2205,43 @@
       <c r="D151" s="6" t="inlineStr"/>
       <c r="E151" s="6" t="inlineStr"/>
     </row>
+    <row r="152">
+      <c r="A152" s="5" t="inlineStr">
+        <is>
+          <t>Наценка</t>
+        </is>
+      </c>
+      <c r="B152" s="6" t="inlineStr"/>
+      <c r="C152" s="6" t="inlineStr"/>
+      <c r="D152" s="6" t="inlineStr"/>
+      <c r="E152" s="6" t="inlineStr"/>
+    </row>
     <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>Ноябрь 2025</t>
-        </is>
-      </c>
+      <c r="A153" s="5" t="inlineStr">
+        <is>
+          <t>Наценка розлив</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr"/>
+      <c r="C153" s="6" t="inlineStr"/>
+      <c r="D153" s="6" t="inlineStr"/>
+      <c r="E153" s="6" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B154" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C154" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D154" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E154" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F154" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A154" s="5" t="inlineStr">
+        <is>
+          <t>Наценка фасовка</t>
+        </is>
+      </c>
+      <c r="B154" s="6" t="inlineStr"/>
+      <c r="C154" s="6" t="inlineStr"/>
+      <c r="D154" s="6" t="inlineStr"/>
+      <c r="E154" s="6" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B155" s="6" t="inlineStr"/>
@@ -2249,43 +2249,49 @@
       <c r="D155" s="6" t="inlineStr"/>
       <c r="E155" s="6" t="inlineStr"/>
     </row>
-    <row r="156">
-      <c r="A156" s="5" t="inlineStr">
-        <is>
-          <t>Прибыль</t>
-        </is>
-      </c>
-      <c r="B156" s="6" t="inlineStr"/>
-      <c r="C156" s="6" t="inlineStr"/>
-      <c r="D156" s="6" t="inlineStr"/>
-      <c r="E156" s="6" t="inlineStr"/>
-    </row>
     <row r="157">
-      <c r="A157" s="5" t="inlineStr">
-        <is>
-          <t>Гости</t>
-        </is>
-      </c>
-      <c r="B157" s="6" t="inlineStr"/>
-      <c r="C157" s="6" t="inlineStr"/>
-      <c r="D157" s="6" t="inlineStr"/>
-      <c r="E157" s="6" t="inlineStr"/>
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>Декабрь 2025</t>
+        </is>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек</t>
-        </is>
-      </c>
-      <c r="B158" s="6" t="inlineStr"/>
-      <c r="C158" s="6" t="inlineStr"/>
-      <c r="D158" s="6" t="inlineStr"/>
-      <c r="E158" s="6" t="inlineStr"/>
+      <c r="A158" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B158" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C158" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D158" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E158" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B159" s="6" t="inlineStr"/>
@@ -2296,7 +2302,7 @@
     <row r="160">
       <c r="A160" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B160" s="6" t="inlineStr"/>
@@ -2307,7 +2313,7 @@
     <row r="161">
       <c r="A161" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B161" s="6" t="inlineStr"/>
@@ -2318,7 +2324,7 @@
     <row r="162">
       <c r="A162" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B162" s="6" t="inlineStr"/>
@@ -2329,7 +2335,7 @@
     <row r="163">
       <c r="A163" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B163" s="6" t="inlineStr"/>
@@ -2340,7 +2346,7 @@
     <row r="164">
       <c r="A164" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B164" s="6" t="inlineStr"/>
@@ -2351,7 +2357,7 @@
     <row r="165">
       <c r="A165" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B165" s="6" t="inlineStr"/>
@@ -2362,7 +2368,7 @@
     <row r="166">
       <c r="A166" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B166" s="6" t="inlineStr"/>
@@ -2370,82 +2376,82 @@
       <c r="D166" s="6" t="inlineStr"/>
       <c r="E166" s="6" t="inlineStr"/>
     </row>
+    <row r="167">
+      <c r="A167" s="5" t="inlineStr">
+        <is>
+          <t>Наценка розлив</t>
+        </is>
+      </c>
+      <c r="B167" s="6" t="inlineStr"/>
+      <c r="C167" s="6" t="inlineStr"/>
+      <c r="D167" s="6" t="inlineStr"/>
+      <c r="E167" s="6" t="inlineStr"/>
+    </row>
     <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t>Декабрь 2025</t>
-        </is>
-      </c>
+      <c r="A168" s="5" t="inlineStr">
+        <is>
+          <t>Наценка фасовка</t>
+        </is>
+      </c>
+      <c r="B168" s="6" t="inlineStr"/>
+      <c r="C168" s="6" t="inlineStr"/>
+      <c r="D168" s="6" t="inlineStr"/>
+      <c r="E168" s="6" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="inlineStr">
+      <c r="A169" s="5" t="inlineStr">
+        <is>
+          <t>Наценка кухня</t>
+        </is>
+      </c>
+      <c r="B169" s="6" t="inlineStr"/>
+      <c r="C169" s="6" t="inlineStr"/>
+      <c r="D169" s="6" t="inlineStr"/>
+      <c r="E169" s="6" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>Январь 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>Метрика</t>
         </is>
       </c>
-      <c r="B169" s="4" t="inlineStr">
+      <c r="B172" s="4" t="inlineStr">
         <is>
           <t>Большой пр. В.О</t>
         </is>
       </c>
-      <c r="C169" s="4" t="inlineStr">
+      <c r="C172" s="4" t="inlineStr">
         <is>
           <t>Лиговский</t>
         </is>
       </c>
-      <c r="D169" s="4" t="inlineStr">
+      <c r="D172" s="4" t="inlineStr">
         <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="E169" s="4" t="inlineStr">
+      <c r="E172" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="F169" s="4" t="inlineStr">
+      <c r="F172" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="5" t="inlineStr">
-        <is>
-          <t>Выручка</t>
-        </is>
-      </c>
-      <c r="B170" s="6" t="inlineStr"/>
-      <c r="C170" s="6" t="inlineStr"/>
-      <c r="D170" s="6" t="inlineStr"/>
-      <c r="E170" s="6" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="5" t="inlineStr">
-        <is>
-          <t>Прибыль</t>
-        </is>
-      </c>
-      <c r="B171" s="6" t="inlineStr"/>
-      <c r="C171" s="6" t="inlineStr"/>
-      <c r="D171" s="6" t="inlineStr"/>
-      <c r="E171" s="6" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="5" t="inlineStr">
-        <is>
-          <t>Гости</t>
-        </is>
-      </c>
-      <c r="B172" s="6" t="inlineStr"/>
-      <c r="C172" s="6" t="inlineStr"/>
-      <c r="D172" s="6" t="inlineStr"/>
-      <c r="E172" s="6" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B173" s="6" t="inlineStr"/>
@@ -2456,7 +2462,7 @@
     <row r="174">
       <c r="A174" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B174" s="6" t="inlineStr"/>
@@ -2467,7 +2473,7 @@
     <row r="175">
       <c r="A175" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B175" s="6" t="inlineStr"/>
@@ -2478,7 +2484,7 @@
     <row r="176">
       <c r="A176" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B176" s="6" t="inlineStr"/>
@@ -2489,7 +2495,7 @@
     <row r="177">
       <c r="A177" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B177" s="6" t="inlineStr"/>
@@ -2500,7 +2506,7 @@
     <row r="178">
       <c r="A178" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B178" s="6" t="inlineStr"/>
@@ -2511,7 +2517,7 @@
     <row r="179">
       <c r="A179" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B179" s="6" t="inlineStr"/>
@@ -2522,7 +2528,7 @@
     <row r="180">
       <c r="A180" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B180" s="6" t="inlineStr"/>
@@ -2533,7 +2539,7 @@
     <row r="181">
       <c r="A181" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B181" s="6" t="inlineStr"/>
@@ -2541,71 +2547,71 @@
       <c r="D181" s="6" t="inlineStr"/>
       <c r="E181" s="6" t="inlineStr"/>
     </row>
+    <row r="182">
+      <c r="A182" s="5" t="inlineStr">
+        <is>
+          <t>Наценка фасовка</t>
+        </is>
+      </c>
+      <c r="B182" s="6" t="inlineStr"/>
+      <c r="C182" s="6" t="inlineStr"/>
+      <c r="D182" s="6" t="inlineStr"/>
+      <c r="E182" s="6" t="inlineStr"/>
+    </row>
     <row r="183">
-      <c r="A183" s="2" t="inlineStr">
-        <is>
-          <t>Январь 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="3" t="inlineStr">
+      <c r="A183" s="5" t="inlineStr">
+        <is>
+          <t>Наценка кухня</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr"/>
+      <c r="C183" s="6" t="inlineStr"/>
+      <c r="D183" s="6" t="inlineStr"/>
+      <c r="E183" s="6" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>Февраль 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>Метрика</t>
         </is>
       </c>
-      <c r="B184" s="4" t="inlineStr">
+      <c r="B186" s="4" t="inlineStr">
         <is>
           <t>Большой пр. В.О</t>
         </is>
       </c>
-      <c r="C184" s="4" t="inlineStr">
+      <c r="C186" s="4" t="inlineStr">
         <is>
           <t>Лиговский</t>
         </is>
       </c>
-      <c r="D184" s="4" t="inlineStr">
+      <c r="D186" s="4" t="inlineStr">
         <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="E184" s="4" t="inlineStr">
+      <c r="E186" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="F184" s="4" t="inlineStr">
+      <c r="F186" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="5" t="inlineStr">
-        <is>
-          <t>Выручка</t>
-        </is>
-      </c>
-      <c r="B185" s="6" t="inlineStr"/>
-      <c r="C185" s="6" t="inlineStr"/>
-      <c r="D185" s="6" t="inlineStr"/>
-      <c r="E185" s="6" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="5" t="inlineStr">
-        <is>
-          <t>Прибыль</t>
-        </is>
-      </c>
-      <c r="B186" s="6" t="inlineStr"/>
-      <c r="C186" s="6" t="inlineStr"/>
-      <c r="D186" s="6" t="inlineStr"/>
-      <c r="E186" s="6" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B187" s="6" t="inlineStr"/>
@@ -2616,7 +2622,7 @@
     <row r="188">
       <c r="A188" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B188" s="6" t="inlineStr"/>
@@ -2627,7 +2633,7 @@
     <row r="189">
       <c r="A189" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B189" s="6" t="inlineStr"/>
@@ -2638,7 +2644,7 @@
     <row r="190">
       <c r="A190" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B190" s="6" t="inlineStr"/>
@@ -2649,7 +2655,7 @@
     <row r="191">
       <c r="A191" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B191" s="6" t="inlineStr"/>
@@ -2660,7 +2666,7 @@
     <row r="192">
       <c r="A192" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B192" s="6" t="inlineStr"/>
@@ -2671,7 +2677,7 @@
     <row r="193">
       <c r="A193" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B193" s="6" t="inlineStr"/>
@@ -2682,7 +2688,7 @@
     <row r="194">
       <c r="A194" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B194" s="6" t="inlineStr"/>
@@ -2693,7 +2699,7 @@
     <row r="195">
       <c r="A195" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B195" s="6" t="inlineStr"/>
@@ -2704,7 +2710,7 @@
     <row r="196">
       <c r="A196" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B196" s="6" t="inlineStr"/>
@@ -2712,60 +2718,60 @@
       <c r="D196" s="6" t="inlineStr"/>
       <c r="E196" s="6" t="inlineStr"/>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>Февраль 2026</t>
-        </is>
-      </c>
+    <row r="197">
+      <c r="A197" s="5" t="inlineStr">
+        <is>
+          <t>Наценка кухня</t>
+        </is>
+      </c>
+      <c r="B197" s="6" t="inlineStr"/>
+      <c r="C197" s="6" t="inlineStr"/>
+      <c r="D197" s="6" t="inlineStr"/>
+      <c r="E197" s="6" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="3" t="inlineStr">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>Март 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="3" t="inlineStr">
         <is>
           <t>Метрика</t>
         </is>
       </c>
-      <c r="B199" s="4" t="inlineStr">
+      <c r="B200" s="4" t="inlineStr">
         <is>
           <t>Большой пр. В.О</t>
         </is>
       </c>
-      <c r="C199" s="4" t="inlineStr">
+      <c r="C200" s="4" t="inlineStr">
         <is>
           <t>Лиговский</t>
         </is>
       </c>
-      <c r="D199" s="4" t="inlineStr">
+      <c r="D200" s="4" t="inlineStr">
         <is>
           <t>Кременчугская</t>
         </is>
       </c>
-      <c r="E199" s="4" t="inlineStr">
+      <c r="E200" s="4" t="inlineStr">
         <is>
           <t>Варшавская</t>
         </is>
       </c>
-      <c r="F199" s="4" t="inlineStr">
+      <c r="F200" s="4" t="inlineStr">
         <is>
           <t>Общая</t>
         </is>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="5" t="inlineStr">
-        <is>
-          <t>Выручка</t>
-        </is>
-      </c>
-      <c r="B200" s="6" t="inlineStr"/>
-      <c r="C200" s="6" t="inlineStr"/>
-      <c r="D200" s="6" t="inlineStr"/>
-      <c r="E200" s="6" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B201" s="6" t="inlineStr"/>
@@ -2776,7 +2782,7 @@
     <row r="202">
       <c r="A202" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B202" s="6" t="inlineStr"/>
@@ -2787,7 +2793,7 @@
     <row r="203">
       <c r="A203" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B203" s="6" t="inlineStr"/>
@@ -2798,7 +2804,7 @@
     <row r="204">
       <c r="A204" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B204" s="6" t="inlineStr"/>
@@ -2886,7 +2892,7 @@
     <row r="213">
       <c r="A213" s="2" t="inlineStr">
         <is>
-          <t>Март 2026</t>
+          <t>Апрель 2026</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2975,7 @@
     <row r="219">
       <c r="A219" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B219" s="6" t="inlineStr"/>
@@ -2980,7 +2986,7 @@
     <row r="220">
       <c r="A220" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B220" s="6" t="inlineStr"/>
@@ -2991,7 +2997,7 @@
     <row r="221">
       <c r="A221" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B221" s="6" t="inlineStr"/>
@@ -3002,7 +3008,7 @@
     <row r="222">
       <c r="A222" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B222" s="6" t="inlineStr"/>
@@ -3013,7 +3019,7 @@
     <row r="223">
       <c r="A223" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B223" s="6" t="inlineStr"/>
@@ -3024,7 +3030,7 @@
     <row r="224">
       <c r="A224" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B224" s="6" t="inlineStr"/>
@@ -3035,7 +3041,7 @@
     <row r="225">
       <c r="A225" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B225" s="6" t="inlineStr"/>
@@ -3043,60 +3049,60 @@
       <c r="D225" s="6" t="inlineStr"/>
       <c r="E225" s="6" t="inlineStr"/>
     </row>
-    <row r="226">
-      <c r="A226" s="5" t="inlineStr">
-        <is>
-          <t>Наценка кухня</t>
-        </is>
-      </c>
-      <c r="B226" s="6" t="inlineStr"/>
-      <c r="C226" s="6" t="inlineStr"/>
-      <c r="D226" s="6" t="inlineStr"/>
-      <c r="E226" s="6" t="inlineStr"/>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>Май 2026</t>
+        </is>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="inlineStr">
-        <is>
-          <t>Апрель 2026</t>
+      <c r="A228" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B228" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C228" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D228" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E228" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F228" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B229" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C229" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D229" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E229" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F229" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A229" s="5" t="inlineStr">
+        <is>
+          <t>Выручка</t>
+        </is>
+      </c>
+      <c r="B229" s="6" t="inlineStr"/>
+      <c r="C229" s="6" t="inlineStr"/>
+      <c r="D229" s="6" t="inlineStr"/>
+      <c r="E229" s="6" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B230" s="6" t="inlineStr"/>
@@ -3107,7 +3113,7 @@
     <row r="231">
       <c r="A231" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B231" s="6" t="inlineStr"/>
@@ -3118,7 +3124,7 @@
     <row r="232">
       <c r="A232" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B232" s="6" t="inlineStr"/>
@@ -3129,7 +3135,7 @@
     <row r="233">
       <c r="A233" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B233" s="6" t="inlineStr"/>
@@ -3140,7 +3146,7 @@
     <row r="234">
       <c r="A234" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B234" s="6" t="inlineStr"/>
@@ -3151,7 +3157,7 @@
     <row r="235">
       <c r="A235" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B235" s="6" t="inlineStr"/>
@@ -3162,7 +3168,7 @@
     <row r="236">
       <c r="A236" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B236" s="6" t="inlineStr"/>
@@ -3173,7 +3179,7 @@
     <row r="237">
       <c r="A237" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B237" s="6" t="inlineStr"/>
@@ -3184,7 +3190,7 @@
     <row r="238">
       <c r="A238" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B238" s="6" t="inlineStr"/>
@@ -3195,7 +3201,7 @@
     <row r="239">
       <c r="A239" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B239" s="6" t="inlineStr"/>
@@ -3203,71 +3209,71 @@
       <c r="D239" s="6" t="inlineStr"/>
       <c r="E239" s="6" t="inlineStr"/>
     </row>
-    <row r="240">
-      <c r="A240" s="5" t="inlineStr">
-        <is>
-          <t>Наценка фасовка</t>
-        </is>
-      </c>
-      <c r="B240" s="6" t="inlineStr"/>
-      <c r="C240" s="6" t="inlineStr"/>
-      <c r="D240" s="6" t="inlineStr"/>
-      <c r="E240" s="6" t="inlineStr"/>
-    </row>
     <row r="241">
-      <c r="A241" s="5" t="inlineStr">
-        <is>
-          <t>Наценка кухня</t>
-        </is>
-      </c>
-      <c r="B241" s="6" t="inlineStr"/>
-      <c r="C241" s="6" t="inlineStr"/>
-      <c r="D241" s="6" t="inlineStr"/>
-      <c r="E241" s="6" t="inlineStr"/>
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>Июнь 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B242" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C242" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D242" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E242" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F242" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="inlineStr">
-        <is>
-          <t>Май 2026</t>
-        </is>
-      </c>
+      <c r="A243" s="5" t="inlineStr">
+        <is>
+          <t>Выручка</t>
+        </is>
+      </c>
+      <c r="B243" s="6" t="inlineStr"/>
+      <c r="C243" s="6" t="inlineStr"/>
+      <c r="D243" s="6" t="inlineStr"/>
+      <c r="E243" s="6" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B244" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C244" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D244" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E244" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F244" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A244" s="5" t="inlineStr">
+        <is>
+          <t>Прибыль</t>
+        </is>
+      </c>
+      <c r="B244" s="6" t="inlineStr"/>
+      <c r="C244" s="6" t="inlineStr"/>
+      <c r="D244" s="6" t="inlineStr"/>
+      <c r="E244" s="6" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B245" s="6" t="inlineStr"/>
@@ -3278,7 +3284,7 @@
     <row r="246">
       <c r="A246" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B246" s="6" t="inlineStr"/>
@@ -3289,7 +3295,7 @@
     <row r="247">
       <c r="A247" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B247" s="6" t="inlineStr"/>
@@ -3300,7 +3306,7 @@
     <row r="248">
       <c r="A248" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B248" s="6" t="inlineStr"/>
@@ -3311,7 +3317,7 @@
     <row r="249">
       <c r="A249" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B249" s="6" t="inlineStr"/>
@@ -3322,7 +3328,7 @@
     <row r="250">
       <c r="A250" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B250" s="6" t="inlineStr"/>
@@ -3333,7 +3339,7 @@
     <row r="251">
       <c r="A251" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B251" s="6" t="inlineStr"/>
@@ -3344,7 +3350,7 @@
     <row r="252">
       <c r="A252" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B252" s="6" t="inlineStr"/>
@@ -3355,7 +3361,7 @@
     <row r="253">
       <c r="A253" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B253" s="6" t="inlineStr"/>
@@ -3363,82 +3369,82 @@
       <c r="D253" s="6" t="inlineStr"/>
       <c r="E253" s="6" t="inlineStr"/>
     </row>
-    <row r="254">
-      <c r="A254" s="5" t="inlineStr">
-        <is>
-          <t>Наценка розлив</t>
-        </is>
-      </c>
-      <c r="B254" s="6" t="inlineStr"/>
-      <c r="C254" s="6" t="inlineStr"/>
-      <c r="D254" s="6" t="inlineStr"/>
-      <c r="E254" s="6" t="inlineStr"/>
-    </row>
     <row r="255">
-      <c r="A255" s="5" t="inlineStr">
-        <is>
-          <t>Наценка фасовка</t>
-        </is>
-      </c>
-      <c r="B255" s="6" t="inlineStr"/>
-      <c r="C255" s="6" t="inlineStr"/>
-      <c r="D255" s="6" t="inlineStr"/>
-      <c r="E255" s="6" t="inlineStr"/>
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>Июль 2026</t>
+        </is>
+      </c>
     </row>
     <row r="256">
-      <c r="A256" s="5" t="inlineStr">
-        <is>
-          <t>Наценка кухня</t>
-        </is>
-      </c>
-      <c r="B256" s="6" t="inlineStr"/>
-      <c r="C256" s="6" t="inlineStr"/>
-      <c r="D256" s="6" t="inlineStr"/>
-      <c r="E256" s="6" t="inlineStr"/>
+      <c r="A256" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B256" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C256" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D256" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E256" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F256" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="5" t="inlineStr">
+        <is>
+          <t>Выручка</t>
+        </is>
+      </c>
+      <c r="B257" s="6" t="inlineStr"/>
+      <c r="C257" s="6" t="inlineStr"/>
+      <c r="D257" s="6" t="inlineStr"/>
+      <c r="E257" s="6" t="inlineStr"/>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="inlineStr">
-        <is>
-          <t>Июнь 2026</t>
-        </is>
-      </c>
+      <c r="A258" s="5" t="inlineStr">
+        <is>
+          <t>Прибыль</t>
+        </is>
+      </c>
+      <c r="B258" s="6" t="inlineStr"/>
+      <c r="C258" s="6" t="inlineStr"/>
+      <c r="D258" s="6" t="inlineStr"/>
+      <c r="E258" s="6" t="inlineStr"/>
     </row>
     <row r="259">
-      <c r="A259" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B259" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C259" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D259" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E259" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F259" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A259" s="5" t="inlineStr">
+        <is>
+          <t>Гости</t>
+        </is>
+      </c>
+      <c r="B259" s="6" t="inlineStr"/>
+      <c r="C259" s="6" t="inlineStr"/>
+      <c r="D259" s="6" t="inlineStr"/>
+      <c r="E259" s="6" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B260" s="6" t="inlineStr"/>
@@ -3449,7 +3455,7 @@
     <row r="261">
       <c r="A261" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B261" s="6" t="inlineStr"/>
@@ -3460,7 +3466,7 @@
     <row r="262">
       <c r="A262" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B262" s="6" t="inlineStr"/>
@@ -3471,7 +3477,7 @@
     <row r="263">
       <c r="A263" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B263" s="6" t="inlineStr"/>
@@ -3482,7 +3488,7 @@
     <row r="264">
       <c r="A264" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B264" s="6" t="inlineStr"/>
@@ -3493,7 +3499,7 @@
     <row r="265">
       <c r="A265" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B265" s="6" t="inlineStr"/>
@@ -3504,7 +3510,7 @@
     <row r="266">
       <c r="A266" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B266" s="6" t="inlineStr"/>
@@ -3515,7 +3521,7 @@
     <row r="267">
       <c r="A267" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B267" s="6" t="inlineStr"/>
@@ -3523,43 +3529,49 @@
       <c r="D267" s="6" t="inlineStr"/>
       <c r="E267" s="6" t="inlineStr"/>
     </row>
-    <row r="268">
-      <c r="A268" s="5" t="inlineStr">
-        <is>
-          <t>Наценка</t>
-        </is>
-      </c>
-      <c r="B268" s="6" t="inlineStr"/>
-      <c r="C268" s="6" t="inlineStr"/>
-      <c r="D268" s="6" t="inlineStr"/>
-      <c r="E268" s="6" t="inlineStr"/>
-    </row>
     <row r="269">
-      <c r="A269" s="5" t="inlineStr">
-        <is>
-          <t>Наценка розлив</t>
-        </is>
-      </c>
-      <c r="B269" s="6" t="inlineStr"/>
-      <c r="C269" s="6" t="inlineStr"/>
-      <c r="D269" s="6" t="inlineStr"/>
-      <c r="E269" s="6" t="inlineStr"/>
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>Август 2026</t>
+        </is>
+      </c>
     </row>
     <row r="270">
-      <c r="A270" s="5" t="inlineStr">
-        <is>
-          <t>Наценка фасовка</t>
-        </is>
-      </c>
-      <c r="B270" s="6" t="inlineStr"/>
-      <c r="C270" s="6" t="inlineStr"/>
-      <c r="D270" s="6" t="inlineStr"/>
-      <c r="E270" s="6" t="inlineStr"/>
+      <c r="A270" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B270" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C270" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D270" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E270" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F270" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B271" s="6" t="inlineStr"/>
@@ -3567,49 +3579,43 @@
       <c r="D271" s="6" t="inlineStr"/>
       <c r="E271" s="6" t="inlineStr"/>
     </row>
+    <row r="272">
+      <c r="A272" s="5" t="inlineStr">
+        <is>
+          <t>Прибыль</t>
+        </is>
+      </c>
+      <c r="B272" s="6" t="inlineStr"/>
+      <c r="C272" s="6" t="inlineStr"/>
+      <c r="D272" s="6" t="inlineStr"/>
+      <c r="E272" s="6" t="inlineStr"/>
+    </row>
     <row r="273">
-      <c r="A273" s="2" t="inlineStr">
-        <is>
-          <t>Июль 2026</t>
-        </is>
-      </c>
+      <c r="A273" s="5" t="inlineStr">
+        <is>
+          <t>Гости</t>
+        </is>
+      </c>
+      <c r="B273" s="6" t="inlineStr"/>
+      <c r="C273" s="6" t="inlineStr"/>
+      <c r="D273" s="6" t="inlineStr"/>
+      <c r="E273" s="6" t="inlineStr"/>
     </row>
     <row r="274">
-      <c r="A274" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B274" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C274" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D274" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E274" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F274" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A274" s="5" t="inlineStr">
+        <is>
+          <t>Средний чек</t>
+        </is>
+      </c>
+      <c r="B274" s="6" t="inlineStr"/>
+      <c r="C274" s="6" t="inlineStr"/>
+      <c r="D274" s="6" t="inlineStr"/>
+      <c r="E274" s="6" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B275" s="6" t="inlineStr"/>
@@ -3620,7 +3626,7 @@
     <row r="276">
       <c r="A276" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B276" s="6" t="inlineStr"/>
@@ -3631,7 +3637,7 @@
     <row r="277">
       <c r="A277" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B277" s="6" t="inlineStr"/>
@@ -3642,7 +3648,7 @@
     <row r="278">
       <c r="A278" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B278" s="6" t="inlineStr"/>
@@ -3653,7 +3659,7 @@
     <row r="279">
       <c r="A279" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B279" s="6" t="inlineStr"/>
@@ -3664,7 +3670,7 @@
     <row r="280">
       <c r="A280" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B280" s="6" t="inlineStr"/>
@@ -3675,7 +3681,7 @@
     <row r="281">
       <c r="A281" s="5" t="inlineStr">
         <is>
-          <t>Доля фасовка</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B281" s="6" t="inlineStr"/>
@@ -3683,43 +3689,49 @@
       <c r="D281" s="6" t="inlineStr"/>
       <c r="E281" s="6" t="inlineStr"/>
     </row>
-    <row r="282">
-      <c r="A282" s="5" t="inlineStr">
-        <is>
-          <t>Доля кухня</t>
-        </is>
-      </c>
-      <c r="B282" s="6" t="inlineStr"/>
-      <c r="C282" s="6" t="inlineStr"/>
-      <c r="D282" s="6" t="inlineStr"/>
-      <c r="E282" s="6" t="inlineStr"/>
-    </row>
     <row r="283">
-      <c r="A283" s="5" t="inlineStr">
-        <is>
-          <t>Наценка</t>
-        </is>
-      </c>
-      <c r="B283" s="6" t="inlineStr"/>
-      <c r="C283" s="6" t="inlineStr"/>
-      <c r="D283" s="6" t="inlineStr"/>
-      <c r="E283" s="6" t="inlineStr"/>
+      <c r="A283" s="2" t="inlineStr">
+        <is>
+          <t>Сентябрь 2026</t>
+        </is>
+      </c>
     </row>
     <row r="284">
-      <c r="A284" s="5" t="inlineStr">
-        <is>
-          <t>Наценка розлив</t>
-        </is>
-      </c>
-      <c r="B284" s="6" t="inlineStr"/>
-      <c r="C284" s="6" t="inlineStr"/>
-      <c r="D284" s="6" t="inlineStr"/>
-      <c r="E284" s="6" t="inlineStr"/>
+      <c r="A284" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B284" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C284" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D284" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E284" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F284" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B285" s="6" t="inlineStr"/>
@@ -3730,7 +3742,7 @@
     <row r="286">
       <c r="A286" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B286" s="6" t="inlineStr"/>
@@ -3738,49 +3750,43 @@
       <c r="D286" s="6" t="inlineStr"/>
       <c r="E286" s="6" t="inlineStr"/>
     </row>
+    <row r="287">
+      <c r="A287" s="5" t="inlineStr">
+        <is>
+          <t>Гости</t>
+        </is>
+      </c>
+      <c r="B287" s="6" t="inlineStr"/>
+      <c r="C287" s="6" t="inlineStr"/>
+      <c r="D287" s="6" t="inlineStr"/>
+      <c r="E287" s="6" t="inlineStr"/>
+    </row>
     <row r="288">
-      <c r="A288" s="2" t="inlineStr">
-        <is>
-          <t>Август 2026</t>
-        </is>
-      </c>
+      <c r="A288" s="5" t="inlineStr">
+        <is>
+          <t>Средний чек</t>
+        </is>
+      </c>
+      <c r="B288" s="6" t="inlineStr"/>
+      <c r="C288" s="6" t="inlineStr"/>
+      <c r="D288" s="6" t="inlineStr"/>
+      <c r="E288" s="6" t="inlineStr"/>
     </row>
     <row r="289">
-      <c r="A289" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B289" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C289" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D289" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E289" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F289" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A289" s="5" t="inlineStr">
+        <is>
+          <t>Доля розлив</t>
+        </is>
+      </c>
+      <c r="B289" s="6" t="inlineStr"/>
+      <c r="C289" s="6" t="inlineStr"/>
+      <c r="D289" s="6" t="inlineStr"/>
+      <c r="E289" s="6" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Доля фасовка</t>
         </is>
       </c>
       <c r="B290" s="6" t="inlineStr"/>
@@ -3791,7 +3797,7 @@
     <row r="291">
       <c r="A291" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B291" s="6" t="inlineStr"/>
@@ -3802,7 +3808,7 @@
     <row r="292">
       <c r="A292" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B292" s="6" t="inlineStr"/>
@@ -3813,7 +3819,7 @@
     <row r="293">
       <c r="A293" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B293" s="6" t="inlineStr"/>
@@ -3824,7 +3830,7 @@
     <row r="294">
       <c r="A294" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B294" s="6" t="inlineStr"/>
@@ -3835,7 +3841,7 @@
     <row r="295">
       <c r="A295" s="5" t="inlineStr">
         <is>
-          <t>Доля розлив</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B295" s="6" t="inlineStr"/>
@@ -3843,43 +3849,49 @@
       <c r="D295" s="6" t="inlineStr"/>
       <c r="E295" s="6" t="inlineStr"/>
     </row>
-    <row r="296">
-      <c r="A296" s="5" t="inlineStr">
-        <is>
-          <t>Доля фасовка</t>
-        </is>
-      </c>
-      <c r="B296" s="6" t="inlineStr"/>
-      <c r="C296" s="6" t="inlineStr"/>
-      <c r="D296" s="6" t="inlineStr"/>
-      <c r="E296" s="6" t="inlineStr"/>
-    </row>
     <row r="297">
-      <c r="A297" s="5" t="inlineStr">
-        <is>
-          <t>Доля кухня</t>
-        </is>
-      </c>
-      <c r="B297" s="6" t="inlineStr"/>
-      <c r="C297" s="6" t="inlineStr"/>
-      <c r="D297" s="6" t="inlineStr"/>
-      <c r="E297" s="6" t="inlineStr"/>
+      <c r="A297" s="2" t="inlineStr">
+        <is>
+          <t>Октябрь 2026</t>
+        </is>
+      </c>
     </row>
     <row r="298">
-      <c r="A298" s="5" t="inlineStr">
-        <is>
-          <t>Наценка</t>
-        </is>
-      </c>
-      <c r="B298" s="6" t="inlineStr"/>
-      <c r="C298" s="6" t="inlineStr"/>
-      <c r="D298" s="6" t="inlineStr"/>
-      <c r="E298" s="6" t="inlineStr"/>
+      <c r="A298" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B298" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C298" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D298" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E298" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F298" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B299" s="6" t="inlineStr"/>
@@ -3890,7 +3902,7 @@
     <row r="300">
       <c r="A300" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B300" s="6" t="inlineStr"/>
@@ -3901,7 +3913,7 @@
     <row r="301">
       <c r="A301" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B301" s="6" t="inlineStr"/>
@@ -3909,49 +3921,43 @@
       <c r="D301" s="6" t="inlineStr"/>
       <c r="E301" s="6" t="inlineStr"/>
     </row>
+    <row r="302">
+      <c r="A302" s="5" t="inlineStr">
+        <is>
+          <t>Средний чек</t>
+        </is>
+      </c>
+      <c r="B302" s="6" t="inlineStr"/>
+      <c r="C302" s="6" t="inlineStr"/>
+      <c r="D302" s="6" t="inlineStr"/>
+      <c r="E302" s="6" t="inlineStr"/>
+    </row>
     <row r="303">
-      <c r="A303" s="2" t="inlineStr">
-        <is>
-          <t>Сентябрь 2026</t>
-        </is>
-      </c>
+      <c r="A303" s="5" t="inlineStr">
+        <is>
+          <t>Доля розлив</t>
+        </is>
+      </c>
+      <c r="B303" s="6" t="inlineStr"/>
+      <c r="C303" s="6" t="inlineStr"/>
+      <c r="D303" s="6" t="inlineStr"/>
+      <c r="E303" s="6" t="inlineStr"/>
     </row>
     <row r="304">
-      <c r="A304" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B304" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C304" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D304" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E304" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F304" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A304" s="5" t="inlineStr">
+        <is>
+          <t>Доля фасовка</t>
+        </is>
+      </c>
+      <c r="B304" s="6" t="inlineStr"/>
+      <c r="C304" s="6" t="inlineStr"/>
+      <c r="D304" s="6" t="inlineStr"/>
+      <c r="E304" s="6" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Доля кухня</t>
         </is>
       </c>
       <c r="B305" s="6" t="inlineStr"/>
@@ -3962,7 +3968,7 @@
     <row r="306">
       <c r="A306" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B306" s="6" t="inlineStr"/>
@@ -3973,7 +3979,7 @@
     <row r="307">
       <c r="A307" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B307" s="6" t="inlineStr"/>
@@ -3984,7 +3990,7 @@
     <row r="308">
       <c r="A308" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B308" s="6" t="inlineStr"/>
@@ -3995,7 +4001,7 @@
     <row r="309">
       <c r="A309" s="5" t="inlineStr">
         <is>
-          <t>Средний чек на гостя</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B309" s="6" t="inlineStr"/>
@@ -4003,43 +4009,49 @@
       <c r="D309" s="6" t="inlineStr"/>
       <c r="E309" s="6" t="inlineStr"/>
     </row>
-    <row r="310">
-      <c r="A310" s="5" t="inlineStr">
-        <is>
-          <t>Доля розлив</t>
-        </is>
-      </c>
-      <c r="B310" s="6" t="inlineStr"/>
-      <c r="C310" s="6" t="inlineStr"/>
-      <c r="D310" s="6" t="inlineStr"/>
-      <c r="E310" s="6" t="inlineStr"/>
-    </row>
     <row r="311">
-      <c r="A311" s="5" t="inlineStr">
-        <is>
-          <t>Доля фасовка</t>
-        </is>
-      </c>
-      <c r="B311" s="6" t="inlineStr"/>
-      <c r="C311" s="6" t="inlineStr"/>
-      <c r="D311" s="6" t="inlineStr"/>
-      <c r="E311" s="6" t="inlineStr"/>
+      <c r="A311" s="2" t="inlineStr">
+        <is>
+          <t>Ноябрь 2026</t>
+        </is>
+      </c>
     </row>
     <row r="312">
-      <c r="A312" s="5" t="inlineStr">
-        <is>
-          <t>Доля кухня</t>
-        </is>
-      </c>
-      <c r="B312" s="6" t="inlineStr"/>
-      <c r="C312" s="6" t="inlineStr"/>
-      <c r="D312" s="6" t="inlineStr"/>
-      <c r="E312" s="6" t="inlineStr"/>
+      <c r="A312" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B312" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C312" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D312" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E312" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F312" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B313" s="6" t="inlineStr"/>
@@ -4050,7 +4062,7 @@
     <row r="314">
       <c r="A314" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B314" s="6" t="inlineStr"/>
@@ -4061,7 +4073,7 @@
     <row r="315">
       <c r="A315" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B315" s="6" t="inlineStr"/>
@@ -4072,7 +4084,7 @@
     <row r="316">
       <c r="A316" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B316" s="6" t="inlineStr"/>
@@ -4080,49 +4092,43 @@
       <c r="D316" s="6" t="inlineStr"/>
       <c r="E316" s="6" t="inlineStr"/>
     </row>
+    <row r="317">
+      <c r="A317" s="5" t="inlineStr">
+        <is>
+          <t>Доля розлив</t>
+        </is>
+      </c>
+      <c r="B317" s="6" t="inlineStr"/>
+      <c r="C317" s="6" t="inlineStr"/>
+      <c r="D317" s="6" t="inlineStr"/>
+      <c r="E317" s="6" t="inlineStr"/>
+    </row>
     <row r="318">
-      <c r="A318" s="2" t="inlineStr">
-        <is>
-          <t>Октябрь 2026</t>
-        </is>
-      </c>
+      <c r="A318" s="5" t="inlineStr">
+        <is>
+          <t>Доля фасовка</t>
+        </is>
+      </c>
+      <c r="B318" s="6" t="inlineStr"/>
+      <c r="C318" s="6" t="inlineStr"/>
+      <c r="D318" s="6" t="inlineStr"/>
+      <c r="E318" s="6" t="inlineStr"/>
     </row>
     <row r="319">
-      <c r="A319" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B319" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C319" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D319" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E319" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F319" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A319" s="5" t="inlineStr">
+        <is>
+          <t>Доля кухня</t>
+        </is>
+      </c>
+      <c r="B319" s="6" t="inlineStr"/>
+      <c r="C319" s="6" t="inlineStr"/>
+      <c r="D319" s="6" t="inlineStr"/>
+      <c r="E319" s="6" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Наценка</t>
         </is>
       </c>
       <c r="B320" s="6" t="inlineStr"/>
@@ -4133,7 +4139,7 @@
     <row r="321">
       <c r="A321" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B321" s="6" t="inlineStr"/>
@@ -4144,7 +4150,7 @@
     <row r="322">
       <c r="A322" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B322" s="6" t="inlineStr"/>
@@ -4155,7 +4161,7 @@
     <row r="323">
       <c r="A323" s="5" t="inlineStr">
         <is>
-          <t>Средний чек</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B323" s="6" t="inlineStr"/>
@@ -4163,43 +4169,49 @@
       <c r="D323" s="6" t="inlineStr"/>
       <c r="E323" s="6" t="inlineStr"/>
     </row>
-    <row r="324">
-      <c r="A324" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек на гостя</t>
-        </is>
-      </c>
-      <c r="B324" s="6" t="inlineStr"/>
-      <c r="C324" s="6" t="inlineStr"/>
-      <c r="D324" s="6" t="inlineStr"/>
-      <c r="E324" s="6" t="inlineStr"/>
-    </row>
     <row r="325">
-      <c r="A325" s="5" t="inlineStr">
-        <is>
-          <t>Доля розлив</t>
-        </is>
-      </c>
-      <c r="B325" s="6" t="inlineStr"/>
-      <c r="C325" s="6" t="inlineStr"/>
-      <c r="D325" s="6" t="inlineStr"/>
-      <c r="E325" s="6" t="inlineStr"/>
+      <c r="A325" s="2" t="inlineStr">
+        <is>
+          <t>Декабрь 2026</t>
+        </is>
+      </c>
     </row>
     <row r="326">
-      <c r="A326" s="5" t="inlineStr">
-        <is>
-          <t>Доля фасовка</t>
-        </is>
-      </c>
-      <c r="B326" s="6" t="inlineStr"/>
-      <c r="C326" s="6" t="inlineStr"/>
-      <c r="D326" s="6" t="inlineStr"/>
-      <c r="E326" s="6" t="inlineStr"/>
+      <c r="A326" s="3" t="inlineStr">
+        <is>
+          <t>Метрика</t>
+        </is>
+      </c>
+      <c r="B326" s="4" t="inlineStr">
+        <is>
+          <t>Большой пр. В.О</t>
+        </is>
+      </c>
+      <c r="C326" s="4" t="inlineStr">
+        <is>
+          <t>Лиговский</t>
+        </is>
+      </c>
+      <c r="D326" s="4" t="inlineStr">
+        <is>
+          <t>Кременчугская</t>
+        </is>
+      </c>
+      <c r="E326" s="4" t="inlineStr">
+        <is>
+          <t>Варшавская</t>
+        </is>
+      </c>
+      <c r="F326" s="4" t="inlineStr">
+        <is>
+          <t>Общая</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="5" t="inlineStr">
         <is>
-          <t>Доля кухня</t>
+          <t>Выручка</t>
         </is>
       </c>
       <c r="B327" s="6" t="inlineStr"/>
@@ -4210,7 +4222,7 @@
     <row r="328">
       <c r="A328" s="5" t="inlineStr">
         <is>
-          <t>Наценка</t>
+          <t>Прибыль</t>
         </is>
       </c>
       <c r="B328" s="6" t="inlineStr"/>
@@ -4221,7 +4233,7 @@
     <row r="329">
       <c r="A329" s="5" t="inlineStr">
         <is>
-          <t>Наценка розлив</t>
+          <t>Гости</t>
         </is>
       </c>
       <c r="B329" s="6" t="inlineStr"/>
@@ -4232,7 +4244,7 @@
     <row r="330">
       <c r="A330" s="5" t="inlineStr">
         <is>
-          <t>Наценка фасовка</t>
+          <t>Средний чек</t>
         </is>
       </c>
       <c r="B330" s="6" t="inlineStr"/>
@@ -4243,7 +4255,7 @@
     <row r="331">
       <c r="A331" s="5" t="inlineStr">
         <is>
-          <t>Наценка кухня</t>
+          <t>Доля розлив</t>
         </is>
       </c>
       <c r="B331" s="6" t="inlineStr"/>
@@ -4251,49 +4263,43 @@
       <c r="D331" s="6" t="inlineStr"/>
       <c r="E331" s="6" t="inlineStr"/>
     </row>
+    <row r="332">
+      <c r="A332" s="5" t="inlineStr">
+        <is>
+          <t>Доля фасовка</t>
+        </is>
+      </c>
+      <c r="B332" s="6" t="inlineStr"/>
+      <c r="C332" s="6" t="inlineStr"/>
+      <c r="D332" s="6" t="inlineStr"/>
+      <c r="E332" s="6" t="inlineStr"/>
+    </row>
     <row r="333">
-      <c r="A333" s="2" t="inlineStr">
-        <is>
-          <t>Ноябрь 2026</t>
-        </is>
-      </c>
+      <c r="A333" s="5" t="inlineStr">
+        <is>
+          <t>Доля кухня</t>
+        </is>
+      </c>
+      <c r="B333" s="6" t="inlineStr"/>
+      <c r="C333" s="6" t="inlineStr"/>
+      <c r="D333" s="6" t="inlineStr"/>
+      <c r="E333" s="6" t="inlineStr"/>
     </row>
     <row r="334">
-      <c r="A334" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B334" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C334" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D334" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E334" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F334" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
+      <c r="A334" s="5" t="inlineStr">
+        <is>
+          <t>Наценка</t>
+        </is>
+      </c>
+      <c r="B334" s="6" t="inlineStr"/>
+      <c r="C334" s="6" t="inlineStr"/>
+      <c r="D334" s="6" t="inlineStr"/>
+      <c r="E334" s="6" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="5" t="inlineStr">
         <is>
-          <t>Выручка</t>
+          <t>Наценка розлив</t>
         </is>
       </c>
       <c r="B335" s="6" t="inlineStr"/>
@@ -4304,7 +4310,7 @@
     <row r="336">
       <c r="A336" s="5" t="inlineStr">
         <is>
-          <t>Прибыль</t>
+          <t>Наценка фасовка</t>
         </is>
       </c>
       <c r="B336" s="6" t="inlineStr"/>
@@ -4315,7 +4321,7 @@
     <row r="337">
       <c r="A337" s="5" t="inlineStr">
         <is>
-          <t>Гости</t>
+          <t>Наценка кухня</t>
         </is>
       </c>
       <c r="B337" s="6" t="inlineStr"/>
@@ -4323,303 +4329,33 @@
       <c r="D337" s="6" t="inlineStr"/>
       <c r="E337" s="6" t="inlineStr"/>
     </row>
-    <row r="338">
-      <c r="A338" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек</t>
-        </is>
-      </c>
-      <c r="B338" s="6" t="inlineStr"/>
-      <c r="C338" s="6" t="inlineStr"/>
-      <c r="D338" s="6" t="inlineStr"/>
-      <c r="E338" s="6" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек на гостя</t>
-        </is>
-      </c>
-      <c r="B339" s="6" t="inlineStr"/>
-      <c r="C339" s="6" t="inlineStr"/>
-      <c r="D339" s="6" t="inlineStr"/>
-      <c r="E339" s="6" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="5" t="inlineStr">
-        <is>
-          <t>Доля розлив</t>
-        </is>
-      </c>
-      <c r="B340" s="6" t="inlineStr"/>
-      <c r="C340" s="6" t="inlineStr"/>
-      <c r="D340" s="6" t="inlineStr"/>
-      <c r="E340" s="6" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="5" t="inlineStr">
-        <is>
-          <t>Доля фасовка</t>
-        </is>
-      </c>
-      <c r="B341" s="6" t="inlineStr"/>
-      <c r="C341" s="6" t="inlineStr"/>
-      <c r="D341" s="6" t="inlineStr"/>
-      <c r="E341" s="6" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="5" t="inlineStr">
-        <is>
-          <t>Доля кухня</t>
-        </is>
-      </c>
-      <c r="B342" s="6" t="inlineStr"/>
-      <c r="C342" s="6" t="inlineStr"/>
-      <c r="D342" s="6" t="inlineStr"/>
-      <c r="E342" s="6" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="5" t="inlineStr">
-        <is>
-          <t>Наценка</t>
-        </is>
-      </c>
-      <c r="B343" s="6" t="inlineStr"/>
-      <c r="C343" s="6" t="inlineStr"/>
-      <c r="D343" s="6" t="inlineStr"/>
-      <c r="E343" s="6" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="5" t="inlineStr">
-        <is>
-          <t>Наценка розлив</t>
-        </is>
-      </c>
-      <c r="B344" s="6" t="inlineStr"/>
-      <c r="C344" s="6" t="inlineStr"/>
-      <c r="D344" s="6" t="inlineStr"/>
-      <c r="E344" s="6" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="5" t="inlineStr">
-        <is>
-          <t>Наценка фасовка</t>
-        </is>
-      </c>
-      <c r="B345" s="6" t="inlineStr"/>
-      <c r="C345" s="6" t="inlineStr"/>
-      <c r="D345" s="6" t="inlineStr"/>
-      <c r="E345" s="6" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="5" t="inlineStr">
-        <is>
-          <t>Наценка кухня</t>
-        </is>
-      </c>
-      <c r="B346" s="6" t="inlineStr"/>
-      <c r="C346" s="6" t="inlineStr"/>
-      <c r="D346" s="6" t="inlineStr"/>
-      <c r="E346" s="6" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="2" t="inlineStr">
-        <is>
-          <t>Декабрь 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="3" t="inlineStr">
-        <is>
-          <t>Метрика</t>
-        </is>
-      </c>
-      <c r="B349" s="4" t="inlineStr">
-        <is>
-          <t>Большой пр. В.О</t>
-        </is>
-      </c>
-      <c r="C349" s="4" t="inlineStr">
-        <is>
-          <t>Лиговский</t>
-        </is>
-      </c>
-      <c r="D349" s="4" t="inlineStr">
-        <is>
-          <t>Кременчугская</t>
-        </is>
-      </c>
-      <c r="E349" s="4" t="inlineStr">
-        <is>
-          <t>Варшавская</t>
-        </is>
-      </c>
-      <c r="F349" s="4" t="inlineStr">
-        <is>
-          <t>Общая</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="5" t="inlineStr">
-        <is>
-          <t>Выручка</t>
-        </is>
-      </c>
-      <c r="B350" s="6" t="inlineStr"/>
-      <c r="C350" s="6" t="inlineStr"/>
-      <c r="D350" s="6" t="inlineStr"/>
-      <c r="E350" s="6" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="5" t="inlineStr">
-        <is>
-          <t>Прибыль</t>
-        </is>
-      </c>
-      <c r="B351" s="6" t="inlineStr"/>
-      <c r="C351" s="6" t="inlineStr"/>
-      <c r="D351" s="6" t="inlineStr"/>
-      <c r="E351" s="6" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="5" t="inlineStr">
-        <is>
-          <t>Гости</t>
-        </is>
-      </c>
-      <c r="B352" s="6" t="inlineStr"/>
-      <c r="C352" s="6" t="inlineStr"/>
-      <c r="D352" s="6" t="inlineStr"/>
-      <c r="E352" s="6" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек</t>
-        </is>
-      </c>
-      <c r="B353" s="6" t="inlineStr"/>
-      <c r="C353" s="6" t="inlineStr"/>
-      <c r="D353" s="6" t="inlineStr"/>
-      <c r="E353" s="6" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="5" t="inlineStr">
-        <is>
-          <t>Средний чек на гостя</t>
-        </is>
-      </c>
-      <c r="B354" s="6" t="inlineStr"/>
-      <c r="C354" s="6" t="inlineStr"/>
-      <c r="D354" s="6" t="inlineStr"/>
-      <c r="E354" s="6" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="5" t="inlineStr">
-        <is>
-          <t>Доля розлив</t>
-        </is>
-      </c>
-      <c r="B355" s="6" t="inlineStr"/>
-      <c r="C355" s="6" t="inlineStr"/>
-      <c r="D355" s="6" t="inlineStr"/>
-      <c r="E355" s="6" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="5" t="inlineStr">
-        <is>
-          <t>Доля фасовка</t>
-        </is>
-      </c>
-      <c r="B356" s="6" t="inlineStr"/>
-      <c r="C356" s="6" t="inlineStr"/>
-      <c r="D356" s="6" t="inlineStr"/>
-      <c r="E356" s="6" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="5" t="inlineStr">
-        <is>
-          <t>Доля кухня</t>
-        </is>
-      </c>
-      <c r="B357" s="6" t="inlineStr"/>
-      <c r="C357" s="6" t="inlineStr"/>
-      <c r="D357" s="6" t="inlineStr"/>
-      <c r="E357" s="6" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="5" t="inlineStr">
-        <is>
-          <t>Наценка</t>
-        </is>
-      </c>
-      <c r="B358" s="6" t="inlineStr"/>
-      <c r="C358" s="6" t="inlineStr"/>
-      <c r="D358" s="6" t="inlineStr"/>
-      <c r="E358" s="6" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="5" t="inlineStr">
-        <is>
-          <t>Наценка розлив</t>
-        </is>
-      </c>
-      <c r="B359" s="6" t="inlineStr"/>
-      <c r="C359" s="6" t="inlineStr"/>
-      <c r="D359" s="6" t="inlineStr"/>
-      <c r="E359" s="6" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="5" t="inlineStr">
-        <is>
-          <t>Наценка фасовка</t>
-        </is>
-      </c>
-      <c r="B360" s="6" t="inlineStr"/>
-      <c r="C360" s="6" t="inlineStr"/>
-      <c r="D360" s="6" t="inlineStr"/>
-      <c r="E360" s="6" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="5" t="inlineStr">
-        <is>
-          <t>Наценка кухня</t>
-        </is>
-      </c>
-      <c r="B361" s="6" t="inlineStr"/>
-      <c r="C361" s="6" t="inlineStr"/>
-      <c r="D361" s="6" t="inlineStr"/>
-      <c r="E361" s="6" t="inlineStr"/>
-    </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="A198:C198"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A283:C283"/>
+    <mergeCell ref="A255:C255"/>
     <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A297:C297"/>
+    <mergeCell ref="A129:C129"/>
     <mergeCell ref="A213:C213"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A303:C303"/>
-    <mergeCell ref="A333:C333"/>
-    <mergeCell ref="A318:C318"/>
-    <mergeCell ref="A288:C288"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A348:C348"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A185:C185"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A311:C311"/>
+    <mergeCell ref="A171:C171"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A199:C199"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A157:C157"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A168:C168"/>
-    <mergeCell ref="A228:C228"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A325:C325"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A227:C227"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
